--- a/data/trans_orig/P17G-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P17G-Edad-trans_orig.xlsx
@@ -791,19 +791,19 @@
         <v>2695</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7152</v>
+        <v>7087</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04807640650991647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01454572228853396</v>
+        <v>0.01477334859617119</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1275696598952324</v>
+        <v>0.1264206925051168</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5724</v>
+        <v>5856</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02228740357538195</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06737127312585521</v>
+        <v>0.06892873854902959</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>4589</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1777</v>
+        <v>1748</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10278</v>
+        <v>10247</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03253989434512992</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01259908955517219</v>
+        <v>0.01239273987483019</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07288285573494102</v>
+        <v>0.07266636003218645</v>
       </c>
     </row>
     <row r="6">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9665</v>
+        <v>7933</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03392876618726149</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1724031806916089</v>
+        <v>0.1415104297659917</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7722</v>
+        <v>7766</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02644993386163194</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0908901739357781</v>
+        <v>0.09141132979168359</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -904,19 +904,19 @@
         <v>4149</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1123</v>
+        <v>1095</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12547</v>
+        <v>11687</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02942316472215236</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007966506284750076</v>
+        <v>0.007766596734132697</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08897540932808828</v>
+        <v>0.08287735330252835</v>
       </c>
     </row>
     <row r="7">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5319</v>
+        <v>4259</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01511890412825898</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09488083170287659</v>
+        <v>0.07596290537649998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6923</v>
+        <v>6859</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02200918196314366</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08149201452393402</v>
+        <v>0.0807392264855538</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>2717</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7546</v>
+        <v>8038</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01926993259850244</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005980065128294131</v>
+        <v>0.006004156973551882</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05350858860173562</v>
+        <v>0.05700150513189911</v>
       </c>
     </row>
     <row r="8">
@@ -1004,19 +1004,19 @@
         <v>50616</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44225</v>
+        <v>44459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54288</v>
+        <v>54142</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9028759231745631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7888680855831601</v>
+        <v>0.793043134526861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9683809288054664</v>
+        <v>0.9657753710107722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>82</v>
@@ -1025,19 +1025,19 @@
         <v>78945</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73376</v>
+        <v>72928</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82892</v>
+        <v>82191</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9292534805998425</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8637036070384492</v>
+        <v>0.8584280057497156</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9757123357316971</v>
+        <v>0.9674674028940405</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>132</v>
@@ -1046,19 +1046,19 @@
         <v>129561</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>120845</v>
+        <v>122113</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>134701</v>
+        <v>135231</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9187670083342153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8569568248639204</v>
+        <v>0.8659537019640218</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9552188777525584</v>
+        <v>0.9589780489913715</v>
       </c>
     </row>
     <row r="9">
@@ -1197,19 +1197,19 @@
         <v>5289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2067</v>
+        <v>2053</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11831</v>
+        <v>12334</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07259847599908971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02837792356276644</v>
+        <v>0.02818303595418202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1624095998208643</v>
+        <v>0.1693151201284505</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1218,19 +1218,19 @@
         <v>5057</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1917</v>
+        <v>1934</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10776</v>
+        <v>11076</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03358439230936909</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01273027196561496</v>
+        <v>0.01284172177747465</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07156807435777018</v>
+        <v>0.07356199991079244</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1239,19 +1239,19 @@
         <v>10346</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>5248</v>
+        <v>5213</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>17814</v>
+        <v>17166</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04630554448616943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02348800472250472</v>
+        <v>0.02333457308260729</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07973206667122353</v>
+        <v>0.07683175803891669</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>6093</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2520</v>
+        <v>1865</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13709</v>
+        <v>13360</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08363614351829086</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03459453261751274</v>
+        <v>0.02560744873018243</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1881774868850052</v>
+        <v>0.1833940249780024</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1289,19 +1289,19 @@
         <v>6972</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2969</v>
+        <v>2630</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>14726</v>
+        <v>15046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04630706132101539</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01971933993365893</v>
+        <v>0.01746476042169587</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09780094112237039</v>
+        <v>0.09992583219520659</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -1310,19 +1310,19 @@
         <v>13065</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6841</v>
+        <v>6788</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23008</v>
+        <v>22777</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05847879240737044</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03061725183419384</v>
+        <v>0.03038341253670355</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1029820099935724</v>
+        <v>0.1019478833365522</v>
       </c>
     </row>
     <row r="13">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5199</v>
+        <v>6132</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0232921509212826</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07136337660585051</v>
+        <v>0.08417585315133637</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1360,19 +1360,19 @@
         <v>4130</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10816</v>
+        <v>10305</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02742940002830867</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006821083725693945</v>
+        <v>0.006657147350029503</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07183525214356905</v>
+        <v>0.06843822262832758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -1381,19 +1381,19 @@
         <v>5827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2125</v>
+        <v>2590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11928</v>
+        <v>12397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02608038524937957</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009512166121630283</v>
+        <v>0.01159135546724071</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05338624653899353</v>
+        <v>0.05548833273256467</v>
       </c>
     </row>
     <row r="14">
@@ -1410,19 +1410,19 @@
         <v>59771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52115</v>
+        <v>50671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65453</v>
+        <v>65192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8204732295613368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7153860955533987</v>
+        <v>0.6955637189036977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8984712769044872</v>
+        <v>0.8948870806046234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>127</v>
@@ -1431,19 +1431,19 @@
         <v>134411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>125095</v>
+        <v>124995</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>140850</v>
+        <v>141462</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8926791463413069</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8308101096719953</v>
+        <v>0.8301449271369765</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9354484116687435</v>
+        <v>0.939507638973001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>186</v>
@@ -1452,19 +1452,19 @@
         <v>194182</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>183006</v>
+        <v>180904</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>203319</v>
+        <v>202491</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8691352778570806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8191120585966818</v>
+        <v>0.8097046696221806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9100321984438442</v>
+        <v>0.9063237172945154</v>
       </c>
     </row>
     <row r="15">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5697</v>
+        <v>6595</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0198152239371864</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06073092090845835</v>
+        <v>0.07031072354490019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5417</v>
+        <v>5357</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005387765056642183</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02918369933400183</v>
+        <v>0.02885882347423917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1645,19 +1645,19 @@
         <v>2859</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7627</v>
+        <v>8414</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01023074150778614</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003123909532485983</v>
+        <v>0.003126898431596282</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02729343199109727</v>
+        <v>0.0301112461227045</v>
       </c>
     </row>
     <row r="18">
@@ -1674,19 +1674,19 @@
         <v>6464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2701</v>
+        <v>2724</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13752</v>
+        <v>13694</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06890797668307998</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02879969962357416</v>
+        <v>0.02903899401585576</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1466123441207124</v>
+        <v>0.1459875155576033</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1695,19 +1695,19 @@
         <v>4090</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10134</v>
+        <v>10655</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02203016675128382</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00585694088310567</v>
+        <v>0.005795348903669566</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05459019935694738</v>
+        <v>0.05739568123758271</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -1716,19 +1716,19 @@
         <v>10553</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5323</v>
+        <v>4893</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18910</v>
+        <v>19968</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03776600294119278</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01904933336622956</v>
+        <v>0.01751215230768019</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06767149293262019</v>
+        <v>0.07145837192978435</v>
       </c>
     </row>
     <row r="19">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5768</v>
+        <v>5801</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01979617676233489</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06149410715995773</v>
+        <v>0.06184058010091686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -1766,19 +1766,19 @@
         <v>7047</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2628</v>
+        <v>2671</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15142</v>
+        <v>15171</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03795918117491501</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01415574258695289</v>
+        <v>0.01438692030780034</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08156907842159564</v>
+        <v>0.08172309881585919</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1787,19 +1787,19 @@
         <v>8903</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3968</v>
+        <v>4116</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17720</v>
+        <v>17164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03186226532989607</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01419971084296955</v>
+        <v>0.0147301084078436</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06341567673414501</v>
+        <v>0.06142580410623809</v>
       </c>
     </row>
     <row r="20">
@@ -1816,19 +1816,19 @@
         <v>83621</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75408</v>
+        <v>76421</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88278</v>
+        <v>88371</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8914806226173987</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.803928194403269</v>
+        <v>0.8147260334256685</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9411337966048774</v>
+        <v>0.9421200256222456</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -1837,19 +1837,19 @@
         <v>173498</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>165046</v>
+        <v>164700</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>179393</v>
+        <v>179615</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.934622887017159</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8890955626786988</v>
+        <v>0.8872307579445147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9663815012243776</v>
+        <v>0.9675766307502155</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>245</v>
@@ -1858,19 +1858,19 @@
         <v>257119</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>246055</v>
+        <v>246609</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>264829</v>
+        <v>265282</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9201409902211251</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8805479226963536</v>
+        <v>0.8825315282629025</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9477335748997112</v>
+        <v>0.949355148235012</v>
       </c>
     </row>
     <row r="21">
@@ -2009,19 +2009,19 @@
         <v>4606</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1821</v>
+        <v>1779</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9625</v>
+        <v>9387</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05781540250688447</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02286037797260585</v>
+        <v>0.0223260827202699</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1208150673639826</v>
+        <v>0.1178209844438935</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4465</v>
+        <v>5207</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.006939578971487849</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03028040418386668</v>
+        <v>0.03530733780474025</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -2051,19 +2051,19 @@
         <v>5630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2693</v>
+        <v>1891</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12883</v>
+        <v>11429</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02478489987865426</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01185477170321475</v>
+        <v>0.008323939549605688</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05672110556386776</v>
+        <v>0.05031602501819463</v>
       </c>
     </row>
     <row r="24">
@@ -2080,19 +2080,19 @@
         <v>6639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2769</v>
+        <v>2835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12531</v>
+        <v>13411</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08333133611847589</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03475507002942536</v>
+        <v>0.03558378038415416</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1572837917411859</v>
+        <v>0.1683267771258478</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2101,19 +2101,19 @@
         <v>8098</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3999</v>
+        <v>3938</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16432</v>
+        <v>14361</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05491353946980111</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.027120883930876</v>
+        <v>0.02670806766646337</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1114339321628866</v>
+        <v>0.09738958823005593</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -2122,19 +2122,19 @@
         <v>14737</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8293</v>
+        <v>8690</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23475</v>
+        <v>23299</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06488143119969851</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03651311733068798</v>
+        <v>0.03826080144807405</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1033542386258905</v>
+        <v>0.1025796152550278</v>
       </c>
     </row>
     <row r="25">
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4110</v>
+        <v>7637</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01255979628341037</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05159201237038565</v>
+        <v>0.0958624362442492</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7753</v>
+        <v>7394</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01463154436090635</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05257620429101793</v>
+        <v>0.0501408714812955</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2193,19 +2193,19 @@
         <v>3158</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9030</v>
+        <v>8844</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01390485323902214</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.004129665594215215</v>
+        <v>0.004082713999441721</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03975453380685377</v>
+        <v>0.03893700138852042</v>
       </c>
     </row>
     <row r="26">
@@ -2222,19 +2222,19 @@
         <v>67424</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>60407</v>
+        <v>60084</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72494</v>
+        <v>72627</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8462934650912293</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.758211377967306</v>
+        <v>0.7541623458467253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9099253392224226</v>
+        <v>0.9115980967068996</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>132</v>
@@ -2243,19 +2243,19 @@
         <v>136185</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>127815</v>
+        <v>128363</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140811</v>
+        <v>141240</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9235153371978047</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8667570775598231</v>
+        <v>0.8704732840700321</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9548867081650628</v>
+        <v>0.9577904477351883</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>195</v>
@@ -2264,19 +2264,19 @@
         <v>203610</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>194018</v>
+        <v>193645</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>211872</v>
+        <v>211356</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8964288156826251</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8541981998490064</v>
+        <v>0.852555520087948</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9328021087446949</v>
+        <v>0.9305286613500525</v>
       </c>
     </row>
     <row r="27">
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4329</v>
+        <v>4320</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.006711463265196748</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03429425054127695</v>
+        <v>0.03422204275621583</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4766</v>
+        <v>4870</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.006449201157307011</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03172062762417159</v>
+        <v>0.03241188617267544</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6259</v>
+        <v>6289</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006568941144804408</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02263761820567623</v>
+        <v>0.02274636428793737</v>
       </c>
     </row>
     <row r="30">
@@ -2486,19 +2486,19 @@
         <v>4059</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1049</v>
+        <v>1014</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9174</v>
+        <v>9171</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0321519727919616</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008306810480011542</v>
+        <v>0.008036256301706788</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07267852111464239</v>
+        <v>0.07265243036602084</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2507,19 +2507,19 @@
         <v>5766</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2056</v>
+        <v>2090</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>12894</v>
+        <v>13139</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03837830980812478</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01368253619534456</v>
+        <v>0.01391107637440411</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0858187982083051</v>
+        <v>0.08745089623085939</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>9825</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>4385</v>
+        <v>4516</v>
       </c>
       <c r="T30" s="5" t="n">
         <v>17766</v>
@@ -2537,10 +2537,10 @@
         <v>0.03553557540600746</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.015859515259326</v>
+        <v>0.0163351499461064</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06425965443816085</v>
+        <v>0.06425694881368708</v>
       </c>
     </row>
     <row r="31">
@@ -2557,19 +2557,19 @@
         <v>6282</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2459</v>
+        <v>1864</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12662</v>
+        <v>14105</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04976460440804165</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01948409442364379</v>
+        <v>0.01476957605528512</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1003110658024299</v>
+        <v>0.1117432346947688</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -2578,19 +2578,19 @@
         <v>4317</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>985</v>
+        <v>1168</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10181</v>
+        <v>11112</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02873200439888742</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006553019666366441</v>
+        <v>0.007771277124399901</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06776353656276436</v>
+        <v>0.07395570964026529</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -2599,19 +2599,19 @@
         <v>10599</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5643</v>
+        <v>5021</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>19780</v>
+        <v>19066</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03833477653550393</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02041199212877461</v>
+        <v>0.01816112342210485</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07154316435796292</v>
+        <v>0.06896041139309034</v>
       </c>
     </row>
     <row r="32">
@@ -2628,19 +2628,19 @@
         <v>115042</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>107392</v>
+        <v>106664</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>120000</v>
+        <v>120557</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9113719595348</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8507635244873077</v>
+        <v>0.8449940144191168</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9506467125165307</v>
+        <v>0.9550605822602106</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>139</v>
@@ -2649,19 +2649,19 @@
         <v>139194</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>131654</v>
+        <v>131158</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>144904</v>
+        <v>144662</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9264404846356807</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8762554263849973</v>
+        <v>0.8729546321571104</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9644426364929835</v>
+        <v>0.9628346995356026</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>257</v>
@@ -2670,19 +2670,19 @@
         <v>254236</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>243778</v>
+        <v>244775</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>262941</v>
+        <v>262226</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9195607069136842</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8817340637949317</v>
+        <v>0.8853393029853569</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9510456193819924</v>
+        <v>0.9484596587159846</v>
       </c>
     </row>
     <row r="33">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6447</v>
+        <v>6329</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01351217552970859</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04811130696790024</v>
+        <v>0.04723097325705639</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4497</v>
+        <v>4527</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005556761655257431</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0278758472452281</v>
+        <v>0.02805823781425804</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>3</v>
@@ -2910,19 +2910,19 @@
         <v>2707</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7138</v>
+        <v>7873</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.009166339087203355</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.00282441181434698</v>
+        <v>0.002846712379218738</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02416810196918275</v>
+        <v>0.0266564219363984</v>
       </c>
     </row>
     <row r="37">
@@ -2939,19 +2939,19 @@
         <v>4524</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1779</v>
+        <v>1767</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10011</v>
+        <v>9222</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03375716527365526</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01327272490633658</v>
+        <v>0.0131861134207146</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07470596841477195</v>
+        <v>0.06882055856250625</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -2960,19 +2960,19 @@
         <v>4022</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>10228</v>
+        <v>10044</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02492642190203129</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.006505324916790707</v>
+        <v>0.006567104082178195</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06339377353422208</v>
+        <v>0.06225675398100341</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>9</v>
@@ -2981,19 +2981,19 @@
         <v>8545</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3907</v>
+        <v>3858</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15462</v>
+        <v>15911</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02893315901018947</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01322829345904722</v>
+        <v>0.01306140103733268</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05235397893034539</v>
+        <v>0.0538727204957791</v>
       </c>
     </row>
     <row r="38">
@@ -3010,19 +3010,19 @@
         <v>127670</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>121787</v>
+        <v>122401</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>131230</v>
+        <v>131299</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9527306591966361</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9088286425611468</v>
+        <v>0.9134131580554783</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9792971558357618</v>
+        <v>0.9798154852424484</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>170</v>
@@ -3031,19 +3031,19 @@
         <v>156419</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>150425</v>
+        <v>150510</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>159440</v>
+        <v>159380</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9695168164427113</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9323625910346178</v>
+        <v>0.9328927535871162</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9882389461282585</v>
+        <v>0.9878677685179338</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>302</v>
@@ -3052,19 +3052,19 @@
         <v>284089</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>276551</v>
+        <v>276531</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>289060</v>
+        <v>289119</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9619005019026071</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9363799763858401</v>
+        <v>0.9363099756464734</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9787314637319491</v>
+        <v>0.9789319570945315</v>
       </c>
     </row>
     <row r="39">
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8952</v>
+        <v>7672</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02521447212001119</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09605996918774903</v>
+        <v>0.08232564390745219</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8819</v>
+        <v>7993</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.007849463319476451</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05244243099689733</v>
+        <v>0.04753281151635725</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3292,19 +3292,19 @@
         <v>3670</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>10255</v>
+        <v>9921</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01404147064906354</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003402493651078431</v>
+        <v>0.003436227622383087</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03923672618981287</v>
+        <v>0.03795973885879126</v>
       </c>
     </row>
     <row r="43">
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>5131</v>
+        <v>4710</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01018697061285971</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05506037553421995</v>
+        <v>0.05053766451968367</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>7788</v>
+        <v>7803</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01316345764361907</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04630948150463187</v>
+        <v>0.04640327314149308</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3</v>
@@ -3363,19 +3363,19 @@
         <v>3163</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>8507</v>
+        <v>9434</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01210210318520294</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.003588665148587974</v>
+        <v>0.003626475562543583</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0325509240134148</v>
+        <v>0.03609531468292344</v>
       </c>
     </row>
     <row r="44">
@@ -3392,19 +3392,19 @@
         <v>89896</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>83291</v>
+        <v>83937</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>92280</v>
+        <v>92299</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9645985572671291</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.893731442738848</v>
+        <v>0.9006606091801442</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9901801028147781</v>
+        <v>0.9903835836168789</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>144</v>
@@ -3413,19 +3413,19 @@
         <v>164629</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>158072</v>
+        <v>158742</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>167090</v>
+        <v>167084</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9789870790369045</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9399900244979624</v>
+        <v>0.9439785635589056</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9936172309901496</v>
+        <v>0.9935813695024767</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>241</v>
@@ -3434,19 +3434,19 @@
         <v>254525</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>247236</v>
+        <v>246472</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>258908</v>
+        <v>258716</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9738564261657335</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9459687191994152</v>
+        <v>0.9430419216059722</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.990627584728361</v>
+        <v>0.9898905400854714</v>
       </c>
     </row>
     <row r="45">
@@ -3585,19 +3585,19 @@
         <v>15296</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9205</v>
+        <v>9425</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>24519</v>
+        <v>24342</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02332386797424452</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01403617033009172</v>
+        <v>0.01437169656645596</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03738792803970827</v>
+        <v>0.03711703020435182</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -3606,19 +3606,19 @@
         <v>9943</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4929</v>
+        <v>4948</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>17778</v>
+        <v>17453</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.009483952115142682</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.00470182886608674</v>
+        <v>0.004719709935001228</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01695740308424813</v>
+        <v>0.01664736418188976</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>26</v>
@@ -3627,19 +3627,19 @@
         <v>25239</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>16852</v>
+        <v>16602</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>36077</v>
+        <v>35530</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01480988457494396</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.009888620961759449</v>
+        <v>0.009741673960506196</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.02116960569378013</v>
+        <v>0.02084898111166362</v>
       </c>
     </row>
     <row r="48">
@@ -3656,19 +3656,19 @@
         <v>29317</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>20040</v>
+        <v>19449</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>43841</v>
+        <v>43230</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.04470294321960423</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03055833424119112</v>
+        <v>0.02965643157008722</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.06685007321882756</v>
+        <v>0.06591788072560775</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>27</v>
@@ -3677,19 +3677,19 @@
         <v>29390</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>20563</v>
+        <v>18782</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>43101</v>
+        <v>42541</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.02803357608954066</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01961472738437193</v>
+        <v>0.01791569032327071</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.04111199274630005</v>
+        <v>0.0405786095821051</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>54</v>
@@ -3698,19 +3698,19 @@
         <v>58706</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>43668</v>
+        <v>46153</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>76015</v>
+        <v>75897</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03444834944410292</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.02562427833536458</v>
+        <v>0.02708237143815595</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04460489506928217</v>
+        <v>0.0445360340455689</v>
       </c>
     </row>
     <row r="49">
@@ -3727,19 +3727,19 @@
         <v>17157</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>10296</v>
+        <v>11033</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>26837</v>
+        <v>27769</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.02616104975674262</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.0156999504656786</v>
+        <v>0.01682366633487204</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04092195906006568</v>
+        <v>0.04234319513103865</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>24</v>
@@ -3748,19 +3748,19 @@
         <v>25756</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>17066</v>
+        <v>17664</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>38129</v>
+        <v>38386</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.02456769482075709</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.016279046732432</v>
+        <v>0.01684874432611952</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.03637023898634975</v>
+        <v>0.03661470292531629</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>42</v>
@@ -3769,19 +3769,19 @@
         <v>42913</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>31089</v>
+        <v>31506</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>57769</v>
+        <v>58851</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02518085611884179</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01824289222176927</v>
+        <v>0.01848768863886615</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03389824998157272</v>
+        <v>0.03453307454121545</v>
       </c>
     </row>
     <row r="50">
@@ -3798,19 +3798,19 @@
         <v>594040</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>577420</v>
+        <v>576947</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>608477</v>
+        <v>607897</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9058121390494086</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8804698146954999</v>
+        <v>0.8797487139837572</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9278268039867597</v>
+        <v>0.9269419439024092</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>961</v>
@@ -3819,19 +3819,19 @@
         <v>983282</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>965394</v>
+        <v>965423</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>997440</v>
+        <v>998546</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9379147769745596</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9208525527601105</v>
+        <v>0.920880321415508</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9514194172536717</v>
+        <v>0.9524752625553232</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1558</v>
@@ -3840,19 +3840,19 @@
         <v>1577321</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1553318</v>
+        <v>1555854</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1599013</v>
+        <v>1598808</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9255609098621114</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9114757422732273</v>
+        <v>0.9129636946359428</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9382894552028648</v>
+        <v>0.938168914600453</v>
       </c>
     </row>
     <row r="51">
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6946</v>
+        <v>5479</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01861259342488576</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1217582167190273</v>
+        <v>0.09604954705268504</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -4302,19 +4302,19 @@
         <v>3017</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7898</v>
+        <v>7981</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03071494774456262</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009727254456887248</v>
+        <v>0.009726193884629955</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08040029330098074</v>
+        <v>0.08124878872880203</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -4323,19 +4323,19 @@
         <v>4079</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9350</v>
+        <v>10360</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0262688361662543</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006745356841516631</v>
+        <v>0.006805231216060892</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06021340249051294</v>
+        <v>0.06672279092721603</v>
       </c>
     </row>
     <row r="7">
@@ -4352,19 +4352,19 @@
         <v>5054</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11690</v>
+        <v>12533</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08858962171775037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0183133487401918</v>
+        <v>0.01867783453557337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2049223853238754</v>
+        <v>0.2197162805429208</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7588</v>
+        <v>4863</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.009806796050301178</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07724826735704696</v>
+        <v>0.04950826943889108</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -4394,19 +4394,19 @@
         <v>6017</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1978</v>
+        <v>2013</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14922</v>
+        <v>14179</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03874969625959238</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01273680613890614</v>
+        <v>0.01296329162248424</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09609931469806306</v>
+        <v>0.09131548072158663</v>
       </c>
     </row>
     <row r="8">
@@ -4423,19 +4423,19 @@
         <v>50929</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44021</v>
+        <v>43479</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>55022</v>
+        <v>54937</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8927977848573638</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7716969460646981</v>
+        <v>0.7621939578799234</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9645548523573229</v>
+        <v>0.9630577905488437</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -4444,19 +4444,19 @@
         <v>94250</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>88959</v>
+        <v>89279</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>97250</v>
+        <v>97237</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9594782562051362</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.905622853853824</v>
+        <v>0.9088754119029454</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9900252931064563</v>
+        <v>0.9898940772588316</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>142</v>
@@ -4465,19 +4465,19 @@
         <v>145178</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136027</v>
+        <v>136298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150334</v>
+        <v>150290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9349814675741533</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8760431598197915</v>
+        <v>0.8777909193406126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9681855666144832</v>
+        <v>0.9679040003401747</v>
       </c>
     </row>
     <row r="9">
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4693</v>
+        <v>4808</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009505479108118178</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04680794416034215</v>
+        <v>0.04794818232665229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>4815</v>
+        <v>4558</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003684717994597315</v>
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01861547723556453</v>
+        <v>0.01762300536961865</v>
       </c>
     </row>
     <row r="12">
@@ -4679,19 +4679,19 @@
         <v>3668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8646</v>
+        <v>8929</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03658417554938776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009110745518913709</v>
+        <v>0.009171957217520595</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08622655758153985</v>
+        <v>0.08905788217555691</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -4700,19 +4700,19 @@
         <v>2932</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>945</v>
+        <v>957</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7879</v>
+        <v>7888</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01850908933082676</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005968454644377915</v>
+        <v>0.006044916042400044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04974295713057808</v>
+        <v>0.04980293581439825</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -4721,19 +4721,19 @@
         <v>6600</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2800</v>
+        <v>2824</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13031</v>
+        <v>12625</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02551574251325798</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01082564806512121</v>
+        <v>0.01091650560771816</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05037925749832165</v>
+        <v>0.04881227558444271</v>
       </c>
     </row>
     <row r="13">
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5385</v>
+        <v>5745</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01786073312494021</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05370526948929672</v>
+        <v>0.05730239306415675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -4771,19 +4771,19 @@
         <v>4857</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1768</v>
+        <v>1046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12462</v>
+        <v>12682</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03066367696995731</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01116294649838564</v>
+        <v>0.006603764428391778</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07868166968794575</v>
+        <v>0.08006657705481883</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -4792,19 +4792,19 @@
         <v>6648</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2664</v>
+        <v>2753</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14027</v>
+        <v>15164</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02570072486276018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01029922541612979</v>
+        <v>0.01064521391531443</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05422945686417671</v>
+        <v>0.05862566392115087</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>93853</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88719</v>
+        <v>87905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>97593</v>
+        <v>97543</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9360496122175539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8848468969778257</v>
+        <v>0.8767289633164068</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9733467303697573</v>
+        <v>0.9728525596425237</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>143</v>
@@ -4842,19 +4842,19 @@
         <v>150601</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>142328</v>
+        <v>141791</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>154539</v>
+        <v>154710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.950827233699216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8985951645598867</v>
+        <v>0.8952047277685755</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9756907429486457</v>
+        <v>0.9767738252817073</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>233</v>
@@ -4863,19 +4863,19 @@
         <v>244454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>235372</v>
+        <v>235197</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>250909</v>
+        <v>251009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9450988146293845</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9099873180710252</v>
+        <v>0.9093116549291307</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9700565762176714</v>
+        <v>0.9704448124250199</v>
       </c>
     </row>
     <row r="15">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5102</v>
+        <v>4631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007294783468271228</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0406273678832856</v>
+        <v>0.03687376958964168</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5078</v>
+        <v>5110</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002895918301458871</v>
@@ -5013,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01605165098176027</v>
+        <v>0.0161515287201132</v>
       </c>
     </row>
     <row r="17">
@@ -5030,19 +5030,19 @@
         <v>2737</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7060</v>
+        <v>7474</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02179496324471905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006355952921764078</v>
+        <v>0.006209653410285702</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05621629817198147</v>
+        <v>0.05951409034522692</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8867</v>
+        <v>8882</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009298371708868278</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04648030886853178</v>
+        <v>0.04656203004463091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -5072,19 +5072,19 @@
         <v>4511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1188</v>
+        <v>1624</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11432</v>
+        <v>12400</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01425932884925926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003756179410260231</v>
+        <v>0.005134999561645403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03613651718131845</v>
+        <v>0.03919628921483115</v>
       </c>
     </row>
     <row r="18">
@@ -5101,19 +5101,19 @@
         <v>2852</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7641</v>
+        <v>7751</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02271080680982407</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007162788338469189</v>
+        <v>0.007311876669979152</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06084108646996258</v>
+        <v>0.06171548350725254</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -5122,19 +5122,19 @@
         <v>2888</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7792</v>
+        <v>7723</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0151387669697714</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.00463516504369978</v>
+        <v>0.00470905151646467</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04084563215302526</v>
+        <v>0.04048512962841852</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>6</v>
@@ -5143,19 +5143,19 @@
         <v>5740</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1960</v>
+        <v>1991</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12603</v>
+        <v>11558</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01814475184205177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006195876860223611</v>
+        <v>0.006292833107437485</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03983901498398788</v>
+        <v>0.03653365356077721</v>
       </c>
     </row>
     <row r="19">
@@ -5172,19 +5172,19 @@
         <v>3745</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9543</v>
+        <v>9246</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0298200542694004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007436922832757296</v>
+        <v>0.007622182737631778</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07598689539925728</v>
+        <v>0.07362209811182979</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5193,19 +5193,19 @@
         <v>8333</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2947</v>
+        <v>2893</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17433</v>
+        <v>16979</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04368016039738326</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01544709415433173</v>
+        <v>0.01516765372922384</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09138165433962771</v>
+        <v>0.08900189141210786</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5214,19 +5214,19 @@
         <v>12078</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5828</v>
+        <v>5733</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22128</v>
+        <v>22016</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03817790866218543</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01842181378274269</v>
+        <v>0.01812371230406092</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06994737845480468</v>
+        <v>0.06959193175319814</v>
       </c>
     </row>
     <row r="20">
@@ -5243,19 +5243,19 @@
         <v>115337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108140</v>
+        <v>108075</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>120761</v>
+        <v>120268</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9183793922077853</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8610730250207125</v>
+        <v>0.8605555777019804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9615731302167391</v>
+        <v>0.9576443532202359</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>169</v>
@@ -5264,19 +5264,19 @@
         <v>177772</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>167603</v>
+        <v>166882</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>184376</v>
+        <v>184289</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9318827009239771</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8785782008859672</v>
+        <v>0.8747983472728423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.966501526776547</v>
+        <v>0.966047104220595</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>275</v>
@@ -5285,19 +5285,19 @@
         <v>293108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>281455</v>
+        <v>280673</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>301715</v>
+        <v>301520</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9265220923450447</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8896865785011456</v>
+        <v>0.8872157180822476</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9537288394293596</v>
+        <v>0.9531116222858785</v>
       </c>
     </row>
     <row r="21">
@@ -5436,19 +5436,19 @@
         <v>3503</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>956</v>
+        <v>965</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10455</v>
+        <v>9633</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03140199341551531</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008571290790603463</v>
+        <v>0.0086517182527821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09371721966615608</v>
+        <v>0.08634614788143403</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -5470,19 +5470,19 @@
         <v>3503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9340</v>
+        <v>10733</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01156146897197524</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.003232835035350112</v>
+        <v>0.003246057044961249</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03082517252900089</v>
+        <v>0.03542059513283205</v>
       </c>
     </row>
     <row r="24">
@@ -5499,19 +5499,19 @@
         <v>6311</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2107</v>
+        <v>2070</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15612</v>
+        <v>14124</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05657029031021375</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01888310024812923</v>
+        <v>0.01855512816164859</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1399422473116106</v>
+        <v>0.1266083466919396</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4570</v>
+        <v>5337</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005466317703622573</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02387074040910184</v>
+        <v>0.02787502873292335</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -5541,19 +5541,19 @@
         <v>7357</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3086</v>
+        <v>3051</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16112</v>
+        <v>15932</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02428158798973924</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0101832134565303</v>
+        <v>0.01006798841145809</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05317441551046055</v>
+        <v>0.05257901833764088</v>
       </c>
     </row>
     <row r="25">
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7758</v>
+        <v>7965</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01958787849756969</v>
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06954186936290505</v>
+        <v>0.07139458762645845</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6665</v>
+        <v>7285</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0108720571010653</v>
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03481357918019251</v>
+        <v>0.03805348540120015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -5612,19 +5612,19 @@
         <v>4267</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1113</v>
+        <v>1152</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10548</v>
+        <v>10612</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01408101575880375</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003674262736300758</v>
+        <v>0.003803226948478849</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03481236444074034</v>
+        <v>0.03502164062231877</v>
       </c>
     </row>
     <row r="26">
@@ -5641,19 +5641,19 @@
         <v>99559</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90659</v>
+        <v>90376</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105371</v>
+        <v>105759</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8924398377767012</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8126640054448127</v>
+        <v>0.8101263639350895</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9445431830830803</v>
+        <v>0.9480200365654929</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>165</v>
@@ -5662,19 +5662,19 @@
         <v>188316</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>182765</v>
+        <v>182957</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>190485</v>
+        <v>190487</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9836616251953121</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9546635466076813</v>
+        <v>0.9556682994717086</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.994992551553523</v>
+        <v>0.9950005521910424</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>253</v>
@@ -5683,19 +5683,19 @@
         <v>287875</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>278044</v>
+        <v>276850</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>294726</v>
+        <v>294300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9500759272794818</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9176314273922384</v>
+        <v>0.9136913391266388</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9726860379775761</v>
+        <v>0.9712812057826677</v>
       </c>
     </row>
     <row r="27">
@@ -5850,7 +5850,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4807</v>
+        <v>5209</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.005990232977178508</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03011858785362229</v>
+        <v>0.03263440857767312</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6191</v>
+        <v>4724</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00332536950488159</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02153164951108566</v>
+        <v>0.01642977724526705</v>
       </c>
     </row>
     <row r="30">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7537</v>
+        <v>6541</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01697339948012339</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05892426413625557</v>
+        <v>0.05113568745807579</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7596</v>
+        <v>7574</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.007550923719930034</v>
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02641952375335568</v>
+        <v>0.02634222629330253</v>
       </c>
     </row>
     <row r="31">
@@ -5960,19 +5960,19 @@
         <v>7547</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3053</v>
+        <v>3073</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16299</v>
+        <v>17001</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0590024145943911</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02387178476265523</v>
+        <v>0.02402706208217116</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1274284391917823</v>
+        <v>0.1329140384169159</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -5981,19 +5981,19 @@
         <v>4082</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1033</v>
+        <v>1056</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10343</v>
+        <v>10854</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02557584477854481</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006469721231626116</v>
+        <v>0.006617172428511487</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.06480033288643709</v>
+        <v>0.06800611964643027</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>10</v>
@@ -6002,19 +6002,19 @@
         <v>11629</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6087</v>
+        <v>6177</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>22559</v>
+        <v>22601</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.040446258875258</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02117276440976465</v>
+        <v>0.02148551905388009</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07846320655244493</v>
+        <v>0.07860741239938222</v>
       </c>
     </row>
     <row r="32">
@@ -6031,19 +6031,19 @@
         <v>118188</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>109449</v>
+        <v>107806</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>123640</v>
+        <v>123137</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9240241859254855</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8557011051249364</v>
+        <v>0.8428515900899958</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9666474013433251</v>
+        <v>0.9627115363251427</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>143</v>
@@ -6052,19 +6052,19 @@
         <v>154571</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>147861</v>
+        <v>148371</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>157687</v>
+        <v>157680</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9684339222442767</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9263941079530781</v>
+        <v>0.9295902513187739</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9879599561768624</v>
+        <v>0.9879143715779038</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>252</v>
@@ -6073,19 +6073,19 @@
         <v>272759</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>262335</v>
+        <v>262989</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>279199</v>
+        <v>279279</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9486774478999304</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9124231007776835</v>
+        <v>0.9146948939809799</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9710767810672424</v>
+        <v>0.9713554094089739</v>
       </c>
     </row>
     <row r="33">
@@ -6271,19 +6271,19 @@
         <v>3072</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8638</v>
+        <v>8650</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02288537652302655</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.006995937891130875</v>
+        <v>0.007045408887238735</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06434555055925543</v>
+        <v>0.0644347003163121</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -6292,19 +6292,19 @@
         <v>4931</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1941</v>
+        <v>1948</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10813</v>
+        <v>10818</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03266883266287964</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01285794904294703</v>
+        <v>0.0129078270238415</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07163540023254553</v>
+        <v>0.07166827085735888</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -6313,19 +6313,19 @@
         <v>8003</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3987</v>
+        <v>3853</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15623</v>
+        <v>15954</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02806348412095299</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01398003620630567</v>
+        <v>0.01351016377610174</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05478155019805434</v>
+        <v>0.05594100348464405</v>
       </c>
     </row>
     <row r="37">
@@ -6345,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12968</v>
+        <v>12668</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02394130489327569</v>
@@ -6354,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09659382634671762</v>
+        <v>0.09436170320321036</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6584</v>
+        <v>6944</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0129357831077926</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04362048772515603</v>
+        <v>0.0460013756198741</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4</v>
@@ -6384,19 +6384,19 @@
         <v>5167</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1087</v>
+        <v>1073</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>13939</v>
+        <v>13598</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01811639239181169</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.00381129891152172</v>
+        <v>0.003762656607013898</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04887653084330971</v>
+        <v>0.04767893426519892</v>
       </c>
     </row>
     <row r="38">
@@ -6413,19 +6413,19 @@
         <v>127962</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>119280</v>
+        <v>119257</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>132170</v>
+        <v>132150</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9531733185836978</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8885039410983019</v>
+        <v>0.8883358913846047</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9845236957821057</v>
+        <v>0.9843745774780752</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>143</v>
@@ -6434,19 +6434,19 @@
         <v>144060</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>137838</v>
+        <v>137856</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>147977</v>
+        <v>148002</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9543953842293278</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9131757077881715</v>
+        <v>0.9132902021750968</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9803450752573655</v>
+        <v>0.9805071277222157</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>260</v>
@@ -6455,19 +6455,19 @@
         <v>272021</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>261716</v>
+        <v>262795</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>277404</v>
+        <v>278240</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9538201234872353</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9176862707716684</v>
+        <v>0.9214704550961859</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9726968448671766</v>
+        <v>0.9756268818426141</v>
       </c>
     </row>
     <row r="39">
@@ -6666,19 +6666,19 @@
         <v>4378</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>10928</v>
+        <v>10902</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02339198670675906</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.005965314355251728</v>
+        <v>0.005899225114631569</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05839319840783875</v>
+        <v>0.05825547921041439</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>4</v>
@@ -6687,19 +6687,19 @@
         <v>4378</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1112</v>
+        <v>1150</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>10293</v>
+        <v>11547</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.01462219450298271</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003715787851413902</v>
+        <v>0.003842807099285432</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.0343811356319012</v>
+        <v>0.03856878301145086</v>
       </c>
     </row>
     <row r="43">
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>4913</v>
+        <v>4812</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.008486431949125411</v>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.04377372204429864</v>
+        <v>0.04287595297894004</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2</v>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>6606</v>
+        <v>9344</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01154971090942573</v>
@@ -6749,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03529897268249436</v>
+        <v>0.04992941924446553</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>3</v>
@@ -6758,19 +6758,19 @@
         <v>3114</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>9658</v>
+        <v>8480</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01040126976670434</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.003191533395231633</v>
+        <v>0.003162357976738696</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03225877928502455</v>
+        <v>0.02832515488846418</v>
       </c>
     </row>
     <row r="44">
@@ -6787,7 +6787,7 @@
         <v>111286</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>107326</v>
+        <v>107427</v>
       </c>
       <c r="F44" s="5" t="n">
         <v>112239</v>
@@ -6796,7 +6796,7 @@
         <v>0.9915135680508745</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9562262779557014</v>
+        <v>0.957124047021061</v>
       </c>
       <c r="I44" s="6" t="n">
         <v>1</v>
@@ -6808,19 +6808,19 @@
         <v>180602</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>173995</v>
+        <v>173829</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>184803</v>
+        <v>184244</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9650583023838152</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9297526457940746</v>
+        <v>0.9288684449393454</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.987507890009401</v>
+        <v>0.9845193507992812</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>260</v>
@@ -6829,19 +6829,19 @@
         <v>291888</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>283632</v>
+        <v>284734</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>296106</v>
+        <v>296158</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.974976535730313</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.94739868461128</v>
+        <v>0.9510792163900814</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9890645798078703</v>
+        <v>0.9892370046258938</v>
       </c>
     </row>
     <row r="45">
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>4489</v>
+        <v>4607</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.001191564630159715</v>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.005838401360677301</v>
+        <v>0.005991775508153394</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>4570</v>
+        <v>5351</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0004808157213087411</v>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.002398577159057381</v>
+        <v>0.002808285291247997</v>
       </c>
     </row>
     <row r="47">
@@ -6996,19 +6996,19 @@
         <v>7193</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2854</v>
+        <v>2904</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>14746</v>
+        <v>14681</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.009356061432493672</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.003711850492762735</v>
+        <v>0.003777359297546177</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01917961150157693</v>
+        <v>0.01909503275762039</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>11139</v>
+        <v>10927</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.002401978579087664</v>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.009801225273559712</v>
+        <v>0.00961420095694278</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>9</v>
@@ -7038,19 +7038,19 @@
         <v>9923</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>4711</v>
+        <v>4935</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>19256</v>
+        <v>19039</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.00520806419003181</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.002472623321473071</v>
+        <v>0.00259006015067893</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01010594563882224</v>
+        <v>0.009992375320080325</v>
       </c>
     </row>
     <row r="48">
@@ -7067,19 +7067,19 @@
         <v>19136</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>11339</v>
+        <v>11836</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>28625</v>
+        <v>29965</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.02488949254916242</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.0147479029554216</v>
+        <v>0.01539457339645371</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03723052551841304</v>
+        <v>0.0389743861061488</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>19</v>
@@ -7088,19 +7088,19 @@
         <v>19192</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>11805</v>
+        <v>12136</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>29140</v>
+        <v>28762</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01688658501357107</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.01038715786325321</v>
+        <v>0.01067809581721856</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02563953669211558</v>
+        <v>0.02530690664510389</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>37</v>
@@ -7109,19 +7109,19 @@
         <v>38328</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>27490</v>
+        <v>26912</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>52549</v>
+        <v>51458</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.02011588845368472</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.0144278305688505</v>
+        <v>0.01412448353433677</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02757933156088027</v>
+        <v>0.02700683787906033</v>
       </c>
     </row>
     <row r="49">
@@ -7138,19 +7138,19 @@
         <v>24488</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>15088</v>
+        <v>15513</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>38087</v>
+        <v>37090</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.03185009008627159</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.01962480887767929</v>
+        <v>0.02017634158646506</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.04953773448004373</v>
+        <v>0.04824116606633394</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>21</v>
@@ -7159,19 +7159,19 @@
         <v>24430</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>15266</v>
+        <v>14812</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>36956</v>
+        <v>38492</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.0214956668140436</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.01343199304223296</v>
+        <v>0.01303308988489521</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.03251653787380443</v>
+        <v>0.03386861406639628</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>42</v>
@@ -7180,19 +7180,19 @@
         <v>48918</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>35317</v>
+        <v>35967</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>65687</v>
+        <v>67585</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02567384512545001</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.01853553787007663</v>
+        <v>0.01887639650144667</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.03447450260733684</v>
+        <v>0.03547064111416334</v>
       </c>
     </row>
     <row r="50">
@@ -7209,19 +7209,19 @@
         <v>717114</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>699917</v>
+        <v>698933</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>729680</v>
+        <v>730092</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9327127913019126</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.910344554450699</v>
+        <v>0.9090654613891606</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9490563876502506</v>
+        <v>0.949592140563198</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1016</v>
@@ -7230,19 +7230,19 @@
         <v>1090170</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1075154</v>
+        <v>1074733</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1102440</v>
+        <v>1102739</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9592157695932977</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9460039185220057</v>
+        <v>0.9456333259608901</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9700121417515931</v>
+        <v>0.9702754502164166</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1675</v>
@@ -7251,19 +7251,19 @@
         <v>1807284</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1783850</v>
+        <v>1786560</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1825310</v>
+        <v>1825703</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9485213865095248</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9362223593425698</v>
+        <v>0.937644729713787</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9579819243738011</v>
+        <v>0.9581880812185458</v>
       </c>
     </row>
     <row r="51">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5725</v>
+        <v>4812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01423832748716147</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08533981049079033</v>
+        <v>0.07172703744135776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -7682,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4800</v>
+        <v>4809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.005954039045131376</v>
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0299192350337882</v>
+        <v>0.02998025562773677</v>
       </c>
     </row>
     <row r="6">
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5349</v>
+        <v>5811</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01143296019592071</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05730886213428318</v>
+        <v>0.06225382244541575</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5388</v>
+        <v>7069</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006652041125943934</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03358966377040748</v>
+        <v>0.04406475528132133</v>
       </c>
     </row>
     <row r="7">
@@ -7771,19 +7771,19 @@
         <v>4135</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1055</v>
+        <v>1068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9099</v>
+        <v>10494</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06164738575580778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01572908028662733</v>
+        <v>0.01591402524309158</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1356327371031493</v>
+        <v>0.1564334337430754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -7795,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6568</v>
+        <v>5639</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02004241948538514</v>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07037356085168982</v>
+        <v>0.06041272677097129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -7813,19 +7813,19 @@
         <v>6006</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2129</v>
+        <v>2030</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12998</v>
+        <v>12122</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03744036133416156</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01327223680586687</v>
+        <v>0.01265637986624334</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08102566734051268</v>
+        <v>0.07556163377674158</v>
       </c>
     </row>
     <row r="8">
@@ -7842,19 +7842,19 @@
         <v>61991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>56765</v>
+        <v>55610</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65088</v>
+        <v>65053</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9241142867570308</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.846200343772741</v>
+        <v>0.8289900052602639</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9702783863147584</v>
+        <v>0.9697552041267914</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -7863,19 +7863,19 @@
         <v>90399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86210</v>
+        <v>85848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92420</v>
+        <v>92426</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9685246203186941</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9236441521644301</v>
+        <v>0.9197621295128036</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9901796085967335</v>
+        <v>0.9902362888434264</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>153</v>
@@ -7884,19 +7884,19 @@
         <v>152391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144959</v>
+        <v>145425</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>156582</v>
+        <v>156552</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9499535584947632</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.903626325254125</v>
+        <v>0.906530594206626</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.976080477708362</v>
+        <v>0.9758939060534569</v>
       </c>
     </row>
     <row r="9">
@@ -8035,19 +8035,19 @@
         <v>2958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>927</v>
+        <v>948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8783</v>
+        <v>8788</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03278356855540205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01027063626786151</v>
+        <v>0.01050327041827239</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09734118058981989</v>
+        <v>0.09739419422050795</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5383</v>
+        <v>5333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006857157806178226</v>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03468213966140542</v>
+        <v>0.03436222245292911</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -8077,19 +8077,19 @@
         <v>4022</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10153</v>
+        <v>9265</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01638917305707356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00426724681422594</v>
+        <v>0.004298462558577659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04136731932171295</v>
+        <v>0.03775170743678481</v>
       </c>
     </row>
     <row r="12">
@@ -8106,19 +8106,19 @@
         <v>5179</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13256</v>
+        <v>13044</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0573919681278147</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0179527947361739</v>
+        <v>0.01787403478013737</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1469115725409849</v>
+        <v>0.1445605330004063</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -8127,19 +8127,19 @@
         <v>3421</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>931</v>
+        <v>968</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9212</v>
+        <v>9961</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02204027322490377</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005998637747863842</v>
+        <v>0.00623824904931682</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05935833491798139</v>
+        <v>0.06418414825251334</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -8148,19 +8148,19 @@
         <v>8599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3812</v>
+        <v>3508</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19274</v>
+        <v>16769</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03503755611990048</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01553180587160271</v>
+        <v>0.01429250058905043</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07853070551610779</v>
+        <v>0.06832363335932125</v>
       </c>
     </row>
     <row r="13">
@@ -8177,19 +8177,19 @@
         <v>7425</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3415</v>
+        <v>3592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15480</v>
+        <v>13905</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08228892870007851</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03785002572735436</v>
+        <v>0.03981199502895967</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1715576023854392</v>
+        <v>0.1540947634059903</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -8198,19 +8198,19 @@
         <v>10038</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4651</v>
+        <v>4679</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17553</v>
+        <v>17401</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06467889487197512</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0299694642699545</v>
+        <v>0.0301491147517237</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1131009784975683</v>
+        <v>0.1121240292381456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -8219,19 +8219,19 @@
         <v>17463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10444</v>
+        <v>10737</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26519</v>
+        <v>26842</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07115333950844642</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04255268393940182</v>
+        <v>0.04374717878792466</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1080492360111088</v>
+        <v>0.1093681232695971</v>
       </c>
     </row>
     <row r="14">
@@ -8248,19 +8248,19 @@
         <v>74672</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64494</v>
+        <v>66663</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80687</v>
+        <v>80923</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8275355346167047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.714745809309095</v>
+        <v>0.7387748512536764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8941984035756882</v>
+        <v>0.8968138358153428</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>144</v>
@@ -8269,19 +8269,19 @@
         <v>140673</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132072</v>
+        <v>131377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147371</v>
+        <v>147216</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9064236740969429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.851001577160424</v>
+        <v>0.8465257018761357</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9495807313379874</v>
+        <v>0.9485840306929268</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>215</v>
@@ -8290,19 +8290,19 @@
         <v>215345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202714</v>
+        <v>203034</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>224375</v>
+        <v>224099</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8774199313145795</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8259562265403051</v>
+        <v>0.8272582063962184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9142111561274655</v>
+        <v>0.9130857942687824</v>
       </c>
     </row>
     <row r="15">
@@ -8397,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5521</v>
+        <v>4805</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006690542363713277</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03756738839305526</v>
+        <v>0.03269079576745296</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4309</v>
+        <v>6013</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003100780522414534</v>
@@ -8440,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01358788760883819</v>
+        <v>0.01896070795036534</v>
       </c>
     </row>
     <row r="17">
@@ -8460,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7048</v>
+        <v>7337</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01344500682234015</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04795416269562931</v>
+        <v>0.04992277814330069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -8478,19 +8478,19 @@
         <v>2705</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7240</v>
+        <v>7236</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01589979453857281</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.005123315694162341</v>
+        <v>0.005094275593081187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04255008221767891</v>
+        <v>0.04253033716219111</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -8499,19 +8499,19 @@
         <v>4681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1774</v>
+        <v>1778</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10487</v>
+        <v>10681</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01476210531647929</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005595291418351316</v>
+        <v>0.00560644062082459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0330699391699424</v>
+        <v>0.03368356609633184</v>
       </c>
     </row>
     <row r="18">
@@ -8528,19 +8528,19 @@
         <v>4605</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1002</v>
+        <v>1047</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11035</v>
+        <v>11528</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03133413001587573</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006817246487332557</v>
+        <v>0.007120609675850217</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07508601421148146</v>
+        <v>0.07843565304570818</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -8552,16 +8552,16 @@
         <v>963</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10125</v>
+        <v>10799</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02534253613399112</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.005658056405077178</v>
+        <v>0.005661437967512216</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0595085170506789</v>
+        <v>0.06346802254220647</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -8570,19 +8570,19 @@
         <v>8917</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3750</v>
+        <v>4367</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>16277</v>
+        <v>18114</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02811938389866989</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01182437879585737</v>
+        <v>0.01377167502797002</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05132825098402703</v>
+        <v>0.05712070932262352</v>
       </c>
     </row>
     <row r="19">
@@ -8599,19 +8599,19 @@
         <v>4372</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10514</v>
+        <v>10290</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02974987247299117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00703880386273863</v>
+        <v>0.006954488034364385</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07153660162173943</v>
+        <v>0.07001632804631472</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -8620,19 +8620,19 @@
         <v>7420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3593</v>
+        <v>3663</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13717</v>
+        <v>14211</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04360968978657442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02111911526442033</v>
+        <v>0.02153080820399484</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08061774583343427</v>
+        <v>0.08352384099424773</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -8641,19 +8641,19 @@
         <v>11792</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6528</v>
+        <v>6215</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20030</v>
+        <v>19408</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03718625664260869</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02058628915774299</v>
+        <v>0.01959789643916487</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06316388911220769</v>
+        <v>0.06120120881052981</v>
       </c>
     </row>
     <row r="20">
@@ -8670,19 +8670,19 @@
         <v>135031</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>126997</v>
+        <v>127009</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141046</v>
+        <v>141316</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9187804483250797</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8641129754286081</v>
+        <v>0.8641959985086305</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9597051019616764</v>
+        <v>0.961545566065193</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>157</v>
@@ -8691,19 +8691,19 @@
         <v>155708</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>147631</v>
+        <v>146538</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>161855</v>
+        <v>161677</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9151479795408617</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8676750625508585</v>
+        <v>0.8612533173205024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9512767887364111</v>
+        <v>0.9502307285408103</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>280</v>
@@ -8712,19 +8712,19 @@
         <v>290739</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>278570</v>
+        <v>279572</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>299554</v>
+        <v>299497</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9168314736198276</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8784571528686096</v>
+        <v>0.8816148911652544</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9446274695278603</v>
+        <v>0.9444479231570134</v>
       </c>
     </row>
     <row r="21">
@@ -8863,19 +8863,19 @@
         <v>3853</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9811</v>
+        <v>8913</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02376754987637042</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.006033958508166688</v>
+        <v>0.006038863126342256</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06052890725420343</v>
+        <v>0.05498730537958641</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -8887,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5760</v>
+        <v>6159</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.005710794106755923</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03225547600621351</v>
+        <v>0.03449037713481258</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5</v>
@@ -8905,19 +8905,19 @@
         <v>4872</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1903</v>
+        <v>1018</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10522</v>
+        <v>10810</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01430232959305508</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005586366912974122</v>
+        <v>0.002986898787116497</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03088700051536428</v>
+        <v>0.03173278677120931</v>
       </c>
     </row>
     <row r="24">
@@ -8934,19 +8934,19 @@
         <v>4494</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1134</v>
+        <v>1111</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10206</v>
+        <v>10518</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02772294413514754</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.006998453026262857</v>
+        <v>0.006851271007733506</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06296238279034921</v>
+        <v>0.06489160232470757</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -8955,19 +8955,19 @@
         <v>5212</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1981</v>
+        <v>2013</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11560</v>
+        <v>12443</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02918498310272148</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01109384706600911</v>
+        <v>0.0112720174974395</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06473280584860525</v>
+        <v>0.06968070777665811</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -8976,19 +8976,19 @@
         <v>9705</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4392</v>
+        <v>5124</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16979</v>
+        <v>17571</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02848933434762222</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01289232389245028</v>
+        <v>0.01503967101355172</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04984163109795529</v>
+        <v>0.05157690216236448</v>
       </c>
     </row>
     <row r="25">
@@ -9005,19 +9005,19 @@
         <v>11668</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5776</v>
+        <v>5143</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21045</v>
+        <v>21130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07198541566404382</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03563110319705516</v>
+        <v>0.03172785602512163</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1298320687020869</v>
+        <v>0.1303597919906691</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -9026,19 +9026,19 @@
         <v>6453</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2168</v>
+        <v>3137</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12879</v>
+        <v>13306</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03613553419457494</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01213956624686684</v>
+        <v>0.01756730002455518</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07211841173895393</v>
+        <v>0.07451175795546933</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -9047,19 +9047,19 @@
         <v>18121</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10423</v>
+        <v>10169</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>29193</v>
+        <v>28616</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05319316806604068</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03059469703854982</v>
+        <v>0.02985090107332289</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08569459984759636</v>
+        <v>0.084000677650908</v>
       </c>
     </row>
     <row r="26">
@@ -9076,19 +9076,19 @@
         <v>142078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>131834</v>
+        <v>131534</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>149910</v>
+        <v>150482</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8765240903244382</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8133208165185851</v>
+        <v>0.8114743859037128</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9248420004800306</v>
+        <v>0.9283697569979438</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>154</v>
@@ -9097,19 +9097,19 @@
         <v>165892</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>157976</v>
+        <v>157307</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>171445</v>
+        <v>171806</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9289686885959476</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8846427295056787</v>
+        <v>0.8808976413958507</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9600699263859611</v>
+        <v>0.9620891562662808</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>280</v>
@@ -9118,19 +9118,19 @@
         <v>307970</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>296146</v>
+        <v>295599</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>318054</v>
+        <v>317994</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.904015167993282</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8693080122001792</v>
+        <v>0.8677008596528364</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9336155509145051</v>
+        <v>0.9334400119393877</v>
       </c>
     </row>
     <row r="27">
@@ -9272,7 +9272,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6861</v>
+        <v>5680</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007932283523702972</v>
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04796232909725553</v>
+        <v>0.03970351438089845</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -9306,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8187</v>
+        <v>5689</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.003417780025286884</v>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02465995695733834</v>
+        <v>0.01713418026929475</v>
       </c>
     </row>
     <row r="30">
@@ -9335,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5637</v>
+        <v>5184</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.007169286915966131</v>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0394031799514751</v>
+        <v>0.03623791720058663</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -9353,19 +9353,19 @@
         <v>3378</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8955</v>
+        <v>9242</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01787771797662043</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.005578845896017008</v>
+        <v>0.005565439744898981</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04739145906917872</v>
+        <v>0.04890969236729887</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -9374,19 +9374,19 @@
         <v>4404</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>10769</v>
+        <v>10976</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01326378030383026</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003179978824145491</v>
+        <v>0.003183701386400215</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03243527270792898</v>
+        <v>0.03305827360828745</v>
       </c>
     </row>
     <row r="31">
@@ -9403,19 +9403,19 @@
         <v>9388</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4340</v>
+        <v>4291</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>17204</v>
+        <v>16731</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06562939766052873</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03033784449130449</v>
+        <v>0.02999403867483229</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1202675289671443</v>
+        <v>0.1169554668705836</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -9424,19 +9424,19 @@
         <v>8713</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3842</v>
+        <v>3179</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>19050</v>
+        <v>18954</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0461110402110391</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02033374844145432</v>
+        <v>0.01682563634857184</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1008202306087317</v>
+        <v>0.1003099999042949</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -9445,19 +9445,19 @@
         <v>18101</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10937</v>
+        <v>10604</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>30288</v>
+        <v>29237</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05452090756108229</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.03294077670643926</v>
+        <v>0.03193922884367137</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.09122768281384042</v>
+        <v>0.08806084778801772</v>
       </c>
     </row>
     <row r="32">
@@ -9474,19 +9474,19 @@
         <v>131502</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>123113</v>
+        <v>122788</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>136933</v>
+        <v>136905</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9192690318998021</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8606237478475157</v>
+        <v>0.858351456557341</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9572341122472184</v>
+        <v>0.9570392364566772</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>156</v>
@@ -9495,19 +9495,19 @@
         <v>176863</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>165904</v>
+        <v>166435</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>182614</v>
+        <v>183247</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9360112418123405</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8780133350067322</v>
+        <v>0.8808226919286394</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9664463662740563</v>
+        <v>0.9697979453483784</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>274</v>
@@ -9516,19 +9516,19 @@
         <v>308365</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>295388</v>
+        <v>296899</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>316842</v>
+        <v>317309</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9287975321098005</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8897105142609585</v>
+        <v>0.8942604895188034</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9543279772494255</v>
+        <v>0.9557342056421504</v>
       </c>
     </row>
     <row r="33">
@@ -9730,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>9979</v>
+        <v>8827</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.009659410736014545</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05401892340393873</v>
+        <v>0.04778166666416388</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>8950</v>
+        <v>10607</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005701156663923401</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02859372943389367</v>
+        <v>0.03388871386914775</v>
       </c>
     </row>
     <row r="37">
@@ -9777,19 +9777,19 @@
         <v>3853</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9700</v>
+        <v>9558</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03004227615564504</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007927845184214168</v>
+        <v>0.007900474414806145</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07563128044835585</v>
+        <v>0.07451895655203039</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>7</v>
@@ -9798,19 +9798,19 @@
         <v>7818</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3132</v>
+        <v>3159</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>15606</v>
+        <v>14769</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04232222397200211</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0169527812474979</v>
+        <v>0.01709974395248152</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.08447936846338673</v>
+        <v>0.07994577243348751</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>11</v>
@@ -9819,19 +9819,19 @@
         <v>11672</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6360</v>
+        <v>6056</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>20570</v>
+        <v>20245</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03729012058831088</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02032035492769946</v>
+        <v>0.01934772109461541</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06572014511909599</v>
+        <v>0.06468098993543925</v>
       </c>
     </row>
     <row r="38">
@@ -9848,19 +9848,19 @@
         <v>124407</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>118560</v>
+        <v>118702</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>127243</v>
+        <v>127247</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.969957723844355</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.9243687195516433</v>
+        <v>0.9254810434479696</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9920721548157858</v>
+        <v>0.9920995255851938</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>164</v>
@@ -9869,19 +9869,19 @@
         <v>175132</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>166082</v>
+        <v>166876</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>180246</v>
+        <v>180197</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9480183652919834</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8990291264285871</v>
+        <v>0.9033265225245101</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9756983936125493</v>
+        <v>0.9754352463333806</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>285</v>
@@ -9890,19 +9890,19 @@
         <v>299539</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>290109</v>
+        <v>290277</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>305647</v>
+        <v>305822</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9570087227477657</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.9268809913612028</v>
+        <v>0.9274187632528166</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9765249369979715</v>
+        <v>0.9770834243064501</v>
       </c>
     </row>
     <row r="39">
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5005</v>
+        <v>5401</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.008459660076124115</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04716281732384858</v>
+        <v>0.05089594680610762</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5075</v>
+        <v>5328</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.003233538143668603</v>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01827971718073003</v>
+        <v>0.0191887162666942</v>
       </c>
     </row>
     <row r="43">
@@ -10151,19 +10151,19 @@
         <v>4495</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1327</v>
+        <v>1509</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10622</v>
+        <v>11092</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04235310701303851</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01250537035901992</v>
+        <v>0.01422116422553164</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1000933258283076</v>
+        <v>0.1045153351281351</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>3</v>
@@ -10172,19 +10172,19 @@
         <v>3901</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1240</v>
+        <v>1256</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>9683</v>
+        <v>10305</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02274480043015114</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.007231419532315211</v>
+        <v>0.007319812005359037</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05645070647540813</v>
+        <v>0.06007850320061382</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>7</v>
@@ -10193,19 +10193,19 @@
         <v>8396</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>3629</v>
+        <v>3656</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>16587</v>
+        <v>16760</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03023968872329445</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01307095150501044</v>
+        <v>0.01316824241625317</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.05974219553615184</v>
+        <v>0.06036409157926011</v>
       </c>
     </row>
     <row r="44">
@@ -10222,19 +10222,19 @@
         <v>100732</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>94678</v>
+        <v>93817</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>104271</v>
+        <v>104286</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9491872329108374</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8921328800589284</v>
+        <v>0.8840251603735926</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9825338621827114</v>
+        <v>0.9826717477260045</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>125</v>
@@ -10243,19 +10243,19 @@
         <v>167621</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>161839</v>
+        <v>161217</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>170282</v>
+        <v>170266</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9772551995698489</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9435492935245912</v>
+        <v>0.9399214967993862</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9927685804676848</v>
+        <v>0.992680187994641</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>243</v>
@@ -10264,19 +10264,19 @@
         <v>268352</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>260518</v>
+        <v>259880</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>273652</v>
+        <v>273095</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9665267731330369</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9383090197135727</v>
+        <v>0.9360137407360203</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9856137259519271</v>
+        <v>0.9836080907326796</v>
       </c>
     </row>
     <row r="45">
@@ -10371,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6237</v>
+        <v>5827</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.001165303473275647</v>
@@ -10380,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.007391312547758788</v>
+        <v>0.006905737706233199</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>5589</v>
+        <v>5935</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.0004950457306663809</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.002813645692153308</v>
+        <v>0.002987815929279423</v>
       </c>
     </row>
     <row r="47">
@@ -10431,19 +10431,19 @@
         <v>10877</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>5636</v>
+        <v>5928</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>18951</v>
+        <v>18936</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01288981214973531</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.006679107213114973</v>
+        <v>0.007025757015749682</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02245837711519329</v>
+        <v>0.02244117776055221</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>5</v>
@@ -10452,19 +10452,19 @@
         <v>4789</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1876</v>
+        <v>1777</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>10723</v>
+        <v>10705</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.004192062173573973</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.001641793550563718</v>
+        <v>0.001555716129999574</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.00938597091544755</v>
+        <v>0.009369926222677327</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>16</v>
@@ -10473,19 +10473,19 @@
         <v>15666</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9746</v>
+        <v>9595</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>24592</v>
+        <v>24751</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.007887051582640784</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.00490688043773222</v>
+        <v>0.004830642718802377</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01238076616568106</v>
+        <v>0.01246122625170012</v>
       </c>
     </row>
     <row r="48">
@@ -10502,19 +10502,19 @@
         <v>16201</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>9502</v>
+        <v>9371</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>26784</v>
+        <v>27128</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01919960225047254</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.01126089503135341</v>
+        <v>0.011105371294906</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03174187085460513</v>
+        <v>0.03214926011943402</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>17</v>
@@ -10523,19 +10523,19 @@
         <v>19174</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>11309</v>
+        <v>11977</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>29892</v>
+        <v>30315</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.01678286141191733</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.009898532764880567</v>
+        <v>0.01048366792840422</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.02616450356351042</v>
+        <v>0.0265345958805628</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>31</v>
@@ -10544,19 +10544,19 @@
         <v>35375</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>23832</v>
+        <v>24267</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>49233</v>
+        <v>49768</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.0178095443848006</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.01199845813921671</v>
+        <v>0.01221741234446538</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.02478638978845002</v>
+        <v>0.02505590834024483</v>
       </c>
     </row>
     <row r="49">
@@ -10573,19 +10573,19 @@
         <v>45338</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>32759</v>
+        <v>32934</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>60139</v>
+        <v>61283</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.05372943031032088</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.03882224305012423</v>
+        <v>0.03903029029894895</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.07127057759561663</v>
+        <v>0.0726259783542243</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>42</v>
@@ -10594,19 +10594,19 @@
         <v>46214</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>34090</v>
+        <v>33478</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>60918</v>
+        <v>62621</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.04045115952621661</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02983895950066228</v>
+        <v>0.0293036072563355</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.05332196460389197</v>
+        <v>0.05481231058923675</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>83</v>
@@ -10615,19 +10615,19 @@
         <v>91552</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>73626</v>
+        <v>72226</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>112535</v>
+        <v>112505</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.04609205171700824</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03706709292610727</v>
+        <v>0.03636228897447429</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.05665626970210787</v>
+        <v>0.05664130780460873</v>
       </c>
     </row>
     <row r="50">
@@ -10644,19 +10644,19 @@
         <v>770415</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>753365</v>
+        <v>751414</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>786814</v>
+        <v>785625</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.9130158518161956</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8928107583081162</v>
+        <v>0.8904983171430891</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9324512523318048</v>
+        <v>0.9310421632834623</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>993</v>
@@ -10665,19 +10665,19 @@
         <v>1072288</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1053179</v>
+        <v>1051991</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1087890</v>
+        <v>1088091</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.9385739168882921</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.9218481908009564</v>
+        <v>0.9208079793804357</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9522301568357082</v>
+        <v>0.952406354685973</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1730</v>
@@ -10686,19 +10686,19 @@
         <v>1842702</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1818683</v>
+        <v>1819125</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1865271</v>
+        <v>1866611</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.927716306584884</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.9156237564833581</v>
+        <v>0.915846107774912</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9390787007966297</v>
+        <v>0.9397533258770207</v>
       </c>
     </row>
     <row r="51">
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13513</v>
+        <v>13978</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1083349458856707</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4786410941150089</v>
+        <v>0.4950939961636718</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -11148,19 +11148,19 @@
         <v>4737</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1234</v>
+        <v>1279</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12369</v>
+        <v>13568</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07275584238675679</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01894762574388923</v>
+        <v>0.01964340288369922</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1899583455717529</v>
+        <v>0.2083794325586119</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -11169,19 +11169,19 @@
         <v>7796</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2657</v>
+        <v>1773</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17803</v>
+        <v>19413</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08351699570931048</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02846090942150608</v>
+        <v>0.01898912058649784</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1907230941349355</v>
+        <v>0.2079606265629312</v>
       </c>
     </row>
     <row r="7">
@@ -11201,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8303</v>
+        <v>9095</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06540043464625282</v>
@@ -11210,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2940741804400331</v>
+        <v>0.3221253157383751</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9224</v>
+        <v>9968</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01978082737839253</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09880900264667722</v>
+        <v>0.1067836865349979</v>
       </c>
     </row>
     <row r="8">
@@ -11261,7 +11261,7 @@
         <v>23328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14115</v>
+        <v>13760</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>28233</v>
@@ -11270,7 +11270,7 @@
         <v>0.8262646194680765</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4999438617008038</v>
+        <v>0.4873664810460375</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -11282,19 +11282,19 @@
         <v>60376</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>52744</v>
+        <v>51545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63879</v>
+        <v>63834</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9272441576132432</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8100416544282469</v>
+        <v>0.7916205674413879</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9810523742561108</v>
+        <v>0.9803565971163006</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -11303,19 +11303,19 @@
         <v>83704</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>72848</v>
+        <v>72114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90213</v>
+        <v>90093</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8967021769122969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7803958027561387</v>
+        <v>0.7725404673489492</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9664269279461077</v>
+        <v>0.9651419142095669</v>
       </c>
     </row>
     <row r="9">
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5667</v>
+        <v>6685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01494317059478317</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06932468142429721</v>
+        <v>0.08177086750213848</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -11478,16 +11478,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5878</v>
+        <v>5416</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.01048138185932551</v>
+        <v>0.01048138185932552</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05306140505467444</v>
+        <v>0.04889057313766745</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8386</v>
+        <v>8331</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01237588084389959</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04355431543426064</v>
+        <v>0.04327071837586988</v>
       </c>
     </row>
     <row r="12">
@@ -11525,19 +11525,19 @@
         <v>5687</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1498</v>
+        <v>1445</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15439</v>
+        <v>15258</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06956832603045056</v>
+        <v>0.06956832603045057</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01832833582301242</v>
+        <v>0.01767897039439628</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1888481355185379</v>
+        <v>0.1866321777474623</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -11546,19 +11546,19 @@
         <v>9320</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4347</v>
+        <v>4392</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18893</v>
+        <v>16791</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08413153003846731</v>
+        <v>0.08413153003846735</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03923826127226034</v>
+        <v>0.03964770747217825</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1705424709985877</v>
+        <v>0.1515624352987909</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>11</v>
@@ -11567,19 +11567,19 @@
         <v>15008</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7858</v>
+        <v>7618</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>26051</v>
+        <v>26414</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07794791695385928</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04081074455502023</v>
+        <v>0.03956721733136966</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1353054882927612</v>
+        <v>0.1371905126082679</v>
       </c>
     </row>
     <row r="13">
@@ -11599,16 +11599,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10029</v>
+        <v>11105</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03601510960385078</v>
+        <v>0.03601510960385079</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1226708191067233</v>
+        <v>0.1358323770367706</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -11617,19 +11617,19 @@
         <v>4531</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1663</v>
+        <v>1693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12292</v>
+        <v>12717</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04089603212164369</v>
+        <v>0.04089603212164371</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01500788017933378</v>
+        <v>0.01528264877401033</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1109548083937461</v>
+        <v>0.1147905969006688</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -11638,19 +11638,19 @@
         <v>7475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2835</v>
+        <v>2746</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16189</v>
+        <v>15279</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03882356672670945</v>
+        <v>0.03882356672670946</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01472312614582235</v>
+        <v>0.01426465433149512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08408192767823502</v>
+        <v>0.07935538585575756</v>
       </c>
     </row>
     <row r="14">
@@ -11667,19 +11667,19 @@
         <v>71899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>62568</v>
+        <v>62806</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>77876</v>
+        <v>78075</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8794733937709155</v>
+        <v>0.8794733937709154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7653449020099884</v>
+        <v>0.7682481676580158</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9525883971798589</v>
+        <v>0.9550241971954559</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -11688,19 +11688,19 @@
         <v>95772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86620</v>
+        <v>87058</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102460</v>
+        <v>102265</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8644910559805634</v>
+        <v>0.8644910559805633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7818788638354827</v>
+        <v>0.7858391573689244</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9248602030071037</v>
+        <v>0.9230997105341365</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>133</v>
@@ -11709,19 +11709,19 @@
         <v>167670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>153595</v>
+        <v>155296</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>177397</v>
+        <v>177556</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8708526354755316</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7977446880106935</v>
+        <v>0.8065796974091233</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9213685897433994</v>
+        <v>0.9221946811426105</v>
       </c>
     </row>
     <row r="15">
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6268</v>
+        <v>8504</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01687999672819155</v>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06804608884669644</v>
+        <v>0.09232088282951088</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -11884,7 +11884,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4124</v>
+        <v>4748</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.009601953299518302</v>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03065554412897702</v>
+        <v>0.03528825395468763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -11902,19 +11902,19 @@
         <v>2847</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9578</v>
+        <v>9033</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.01255977493031962</v>
+        <v>0.01255977493031961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.002401256159147656</v>
+        <v>0.002413099852629418</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04226164736752421</v>
+        <v>0.03985503927512993</v>
       </c>
     </row>
     <row r="18">
@@ -11931,19 +11931,19 @@
         <v>11093</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5089</v>
+        <v>5184</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20978</v>
+        <v>19849</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1204282700183391</v>
+        <v>0.120428270018339</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05524533968157948</v>
+        <v>0.0562854782076268</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2277480973073353</v>
+        <v>0.2154904784349315</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -11952,19 +11952,19 @@
         <v>8018</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4240</v>
+        <v>4480</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13815</v>
+        <v>13635</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05959763548058637</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03151779424265519</v>
+        <v>0.03330026347906845</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1026853210762984</v>
+        <v>0.1013496621296162</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -11973,19 +11973,19 @@
         <v>19111</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11849</v>
+        <v>12345</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29461</v>
+        <v>30137</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.0843194124821196</v>
+        <v>0.08431941248211958</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05228194626263533</v>
+        <v>0.05446991694013527</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1299884788136053</v>
+        <v>0.1329693072728621</v>
       </c>
     </row>
     <row r="19">
@@ -12005,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8357</v>
+        <v>7738</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02610241978116018</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0907265393967094</v>
+        <v>0.08400501735403759</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -12023,19 +12023,19 @@
         <v>6887</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3463</v>
+        <v>3495</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11969</v>
+        <v>12459</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05119278665641211</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02573981515993097</v>
+        <v>0.02597570614611168</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08896136117220375</v>
+        <v>0.09260602381603331</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -12044,19 +12044,19 @@
         <v>9292</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5108</v>
+        <v>4885</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16121</v>
+        <v>15775</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04099597612681494</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0225371460118918</v>
+        <v>0.02155198665579921</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07112750076834239</v>
+        <v>0.06960394569628377</v>
       </c>
     </row>
     <row r="20">
@@ -12073,19 +12073,19 @@
         <v>77058</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67015</v>
+        <v>67510</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>84133</v>
+        <v>83781</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8365893134723092</v>
+        <v>0.8365893134723094</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7275588206452992</v>
+        <v>0.732932430768125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9133941010802228</v>
+        <v>0.9095756604251605</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>161</v>
@@ -12094,19 +12094,19 @@
         <v>118339</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>111645</v>
+        <v>111188</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>124477</v>
+        <v>123640</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8796076245634832</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8298557423793264</v>
+        <v>0.8264577771613074</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.925229895724285</v>
+        <v>0.9190088228855282</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>227</v>
@@ -12115,19 +12115,19 @@
         <v>195397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>184379</v>
+        <v>184152</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>204869</v>
+        <v>204836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8621248364607459</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8135118316785701</v>
+        <v>0.812508385926068</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.903914873830965</v>
+        <v>0.9037706218222097</v>
       </c>
     </row>
     <row r="21">
@@ -12235,16 +12235,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3679</v>
+        <v>4050</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.003938075843838957</v>
+        <v>0.003938075843838956</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02060584147274603</v>
+        <v>0.0226838517105761</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3366</v>
+        <v>3931</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00220163786103606</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01053888376581925</v>
+        <v>0.0123091722370819</v>
       </c>
     </row>
     <row r="23">
@@ -12285,16 +12285,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7184</v>
+        <v>7663</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.01610055317327862</v>
+        <v>0.01610055317327863</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05101730573022659</v>
+        <v>0.05441505124359036</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -12303,19 +12303,19 @@
         <v>2822</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>703</v>
+        <v>750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6524</v>
+        <v>6860</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01580411129823197</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.00393810895305545</v>
+        <v>0.004200144808231486</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03653911979802478</v>
+        <v>0.03842287833993951</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -12324,19 +12324,19 @@
         <v>5089</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2087</v>
+        <v>2004</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10833</v>
+        <v>11480</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01593482308539312</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.006535486012712311</v>
+        <v>0.00627509128542213</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03392271732127389</v>
+        <v>0.0359486817850737</v>
       </c>
     </row>
     <row r="24">
@@ -12353,19 +12353,19 @@
         <v>9477</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4448</v>
+        <v>4656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16940</v>
+        <v>18241</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06730149280009916</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03158801209253273</v>
+        <v>0.03306639135549108</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.120301385491034</v>
+        <v>0.1295399916609778</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>16</v>
@@ -12374,19 +12374,19 @@
         <v>10840</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6498</v>
+        <v>6143</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16748</v>
+        <v>16729</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.06071285850311966</v>
+        <v>0.06071285850311964</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03639501170321983</v>
+        <v>0.03440702697751318</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09380539815848014</v>
+        <v>0.09370071320632993</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>24</v>
@@ -12395,19 +12395,19 @@
         <v>20317</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>13448</v>
+        <v>13536</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>30114</v>
+        <v>29247</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06361802216724052</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04210933280256801</v>
+        <v>0.04238530109860209</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09429563767020432</v>
+        <v>0.09158013368741524</v>
       </c>
     </row>
     <row r="25">
@@ -12424,19 +12424,19 @@
         <v>5186</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1827</v>
+        <v>1638</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11528</v>
+        <v>11575</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03682529690993146</v>
+        <v>0.03682529690993147</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01297658090818139</v>
+        <v>0.01163563632689173</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08186910919063112</v>
+        <v>0.08220001764291608</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -12445,19 +12445,19 @@
         <v>10359</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5991</v>
+        <v>6040</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16467</v>
+        <v>16466</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05802068939902389</v>
+        <v>0.05802068939902388</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0335579396158825</v>
+        <v>0.03383090688674108</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0922330518624348</v>
+        <v>0.09222574733041047</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>21</v>
@@ -12466,19 +12466,19 @@
         <v>15545</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10172</v>
+        <v>10228</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23870</v>
+        <v>23859</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04867488549937193</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03185303201675017</v>
+        <v>0.03202722126670337</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07474312128232821</v>
+        <v>0.07470955356068815</v>
       </c>
     </row>
     <row r="26">
@@ -12495,19 +12495,19 @@
         <v>123886</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114935</v>
+        <v>113792</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>130915</v>
+        <v>130312</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8797726571166904</v>
+        <v>0.8797726571166907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8162101371621874</v>
+        <v>0.8080881235045196</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9296855240114414</v>
+        <v>0.925409674117939</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>234</v>
@@ -12516,19 +12516,19 @@
         <v>153817</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>146101</v>
+        <v>145925</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>160235</v>
+        <v>160474</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8615242649557858</v>
+        <v>0.8615242649557856</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8183055384391962</v>
+        <v>0.8173220660175626</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8974678116968861</v>
+        <v>0.8988102653776116</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>346</v>
@@ -12537,19 +12537,19 @@
         <v>277703</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>266014</v>
+        <v>265750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>287766</v>
+        <v>287015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8695706313869583</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8329669613621912</v>
+        <v>0.832142136186658</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9010808329218235</v>
+        <v>0.8987273907002532</v>
       </c>
     </row>
     <row r="27">
@@ -12657,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3738</v>
+        <v>3360</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.004276023715712655</v>
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02368811102079551</v>
+        <v>0.02128843683096843</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1</v>
@@ -12678,16 +12678,16 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3807</v>
+        <v>2733</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.002249835200109869</v>
+        <v>0.002249835200109868</v>
       </c>
       <c r="V28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01269251606128948</v>
+        <v>0.009112534223344522</v>
       </c>
     </row>
     <row r="29">
@@ -12707,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7590</v>
+        <v>7456</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01507846527866764</v>
@@ -12716,7 +12716,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05340460286747932</v>
+        <v>0.0524627441895177</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -12728,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4544</v>
+        <v>4869</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.007311904789751228</v>
@@ -12737,7 +12737,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02879199641883437</v>
+        <v>0.03085455078872567</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -12746,19 +12746,19 @@
         <v>3297</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>983</v>
+        <v>753</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8293</v>
+        <v>8087</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01099207981089329</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.003276109385785686</v>
+        <v>0.002510613247198449</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02765044846404057</v>
+        <v>0.0269639601467798</v>
       </c>
     </row>
     <row r="30">
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8337</v>
+        <v>7299</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0147524130636492</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05866073408290289</v>
+        <v>0.05136015239373893</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -12796,19 +12796,19 @@
         <v>9914</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5377</v>
+        <v>5975</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15049</v>
+        <v>16002</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06282072448827078</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03407187286378096</v>
+        <v>0.03786479203980569</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09536226723345931</v>
+        <v>0.1014036064799251</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>18</v>
@@ -12817,19 +12817,19 @@
         <v>12010</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>7115</v>
+        <v>7744</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>17773</v>
+        <v>17990</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04004361494720402</v>
+        <v>0.04004361494720401</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02372270687484218</v>
+        <v>0.0258182474425219</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05925842050643142</v>
+        <v>0.05998042784995735</v>
       </c>
     </row>
     <row r="31">
@@ -12846,19 +12846,19 @@
         <v>6158</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2707</v>
+        <v>2650</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>12119</v>
+        <v>12404</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04332775765554268</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01904730299364208</v>
+        <v>0.01864733183285702</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08526977625583153</v>
+        <v>0.08727823999781785</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -12867,19 +12867,19 @@
         <v>3824</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1505</v>
+        <v>1376</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8130</v>
+        <v>7796</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02423279267420571</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009536452137233482</v>
+        <v>0.008718171488166787</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05151613915569254</v>
+        <v>0.04940196894765999</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -12888,19 +12888,19 @@
         <v>9982</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5410</v>
+        <v>5699</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15994</v>
+        <v>17410</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.03328091806435551</v>
+        <v>0.0332809180643555</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01803782308827902</v>
+        <v>0.01900109294177699</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.05332574592605162</v>
+        <v>0.05804692586000542</v>
       </c>
     </row>
     <row r="32">
@@ -12917,19 +12917,19 @@
         <v>131725</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>124645</v>
+        <v>124677</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>136304</v>
+        <v>136760</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9268413640021406</v>
+        <v>0.9268413640021408</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8770284788622179</v>
+        <v>0.8772509573188827</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.959060289062919</v>
+        <v>0.9622748609670659</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>226</v>
@@ -12938,19 +12938,19 @@
         <v>142242</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>135813</v>
+        <v>135517</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>147923</v>
+        <v>147192</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9013585543320598</v>
+        <v>0.9013585543320596</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8606182154977098</v>
+        <v>0.8587402422407159</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.93735229275884</v>
+        <v>0.9327201646726575</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>369</v>
@@ -12959,19 +12959,19 @@
         <v>273967</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>265300</v>
+        <v>264238</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>281427</v>
+        <v>280932</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9134335519774375</v>
+        <v>0.9134335519774373</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8845380491324204</v>
+        <v>0.8809962150237985</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9383062242949098</v>
+        <v>0.9366540075414018</v>
       </c>
     </row>
     <row r="33">
@@ -13113,16 +13113,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3046</v>
+        <v>4072</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.006022817277233222</v>
+        <v>0.006022817277233221</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02632615696167946</v>
+        <v>0.03519372700594175</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -13134,16 +13134,16 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3289</v>
+        <v>3027</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.004827242700743831</v>
+        <v>0.004827242700743833</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02431167648622856</v>
+        <v>0.02237213644020584</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -13155,16 +13155,16 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>4090</v>
+        <v>4131</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.005378404379377216</v>
+        <v>0.005378404379377217</v>
       </c>
       <c r="V35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01629367388628281</v>
+        <v>0.01645806859055971</v>
       </c>
     </row>
     <row r="36">
@@ -13181,19 +13181,19 @@
         <v>3311</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7412</v>
+        <v>7478</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.02861357174090681</v>
+        <v>0.0286135717409068</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01088677335637085</v>
+        <v>0.01081828354379132</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06406158948457936</v>
+        <v>0.06462519763871175</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -13202,19 +13202,19 @@
         <v>1825</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>436</v>
+        <v>658</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4492</v>
+        <v>4482</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01349160793184882</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003222250179807985</v>
+        <v>0.004863881357477939</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03320767503821424</v>
+        <v>0.03313001728739112</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>9</v>
@@ -13223,19 +13223,19 @@
         <v>5136</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2428</v>
+        <v>2335</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>9858</v>
+        <v>9410</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02046285600046116</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.009671950622450274</v>
+        <v>0.009304020239230269</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03927817431973173</v>
+        <v>0.0374905686235166</v>
       </c>
     </row>
     <row r="37">
@@ -13252,19 +13252,19 @@
         <v>7133</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3202</v>
+        <v>3513</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12812</v>
+        <v>12416</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.0616480055835597</v>
+        <v>0.06164800558355969</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02767748420454217</v>
+        <v>0.03035921830883717</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1107278319273002</v>
+        <v>0.1073092304432081</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>9</v>
@@ -13273,19 +13273,19 @@
         <v>5291</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2407</v>
+        <v>2571</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9256</v>
+        <v>10055</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03911227984848718</v>
+        <v>0.0391122798484872</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01779090891144853</v>
+        <v>0.01900743659529942</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06841788704998068</v>
+        <v>0.07432894632140793</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>18</v>
@@ -13294,19 +13294,19 @@
         <v>12424</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>7358</v>
+        <v>7007</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>19791</v>
+        <v>19263</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04950128331980209</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02931579531028019</v>
+        <v>0.0279180329817917</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.07885349777929923</v>
+        <v>0.07674915692828825</v>
       </c>
     </row>
     <row r="38">
@@ -13323,19 +13323,19 @@
         <v>104565</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>97899</v>
+        <v>97976</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>109096</v>
+        <v>108796</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9037156053983002</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8461036828642945</v>
+        <v>0.8467705158013602</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9428705250964622</v>
+        <v>0.9402821916471588</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>234</v>
@@ -13344,19 +13344,19 @@
         <v>127513</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>123064</v>
+        <v>122398</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>130760</v>
+        <v>130542</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.9425688695189199</v>
+        <v>0.94256886951892</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.9096886488249123</v>
+        <v>0.9047587616154686</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9665711963989215</v>
+        <v>0.9649595660364377</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>378</v>
@@ -13365,19 +13365,19 @@
         <v>232077</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>223454</v>
+        <v>223910</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>237581</v>
+        <v>238442</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.9246574563003594</v>
+        <v>0.9246574563003596</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8903019388819473</v>
+        <v>0.8921161902894919</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9465887272054792</v>
+        <v>0.9500175743429961</v>
       </c>
     </row>
     <row r="39">
@@ -13519,7 +13519,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2871</v>
+        <v>3542</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007740670891137265</v>
@@ -13528,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03194132149520652</v>
+        <v>0.03940395838092893</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>0</v>
@@ -13553,7 +13553,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3468</v>
+        <v>3453</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.002967831787313088</v>
@@ -13562,7 +13562,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01479057124365294</v>
+        <v>0.01472674682313788</v>
       </c>
     </row>
     <row r="42">
@@ -13592,19 +13592,19 @@
         <v>4984</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2312</v>
+        <v>2404</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>8830</v>
+        <v>9274</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.0344792970620062</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0159919500462731</v>
+        <v>0.01662720170993405</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.06108320966004366</v>
+        <v>0.06415772502544045</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>9</v>
@@ -13613,19 +13613,19 @@
         <v>4984</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2429</v>
+        <v>2353</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>9251</v>
+        <v>9061</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0212596736903428</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01036116771520775</v>
+        <v>0.01003835872515927</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03945881452307736</v>
+        <v>0.03864922143663068</v>
       </c>
     </row>
     <row r="43">
@@ -13642,19 +13642,19 @@
         <v>3649</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1310</v>
+        <v>1294</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>8678</v>
+        <v>8114</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0405978674490893</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01456903883751463</v>
+        <v>0.01439916714389284</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.09654222287007512</v>
+        <v>0.09027117318215618</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>8</v>
@@ -13663,19 +13663,19 @@
         <v>4793</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2070</v>
+        <v>2098</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>9990</v>
+        <v>9344</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.03315953834958636</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01431843453941393</v>
+        <v>0.0145141614085729</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06911068933059164</v>
+        <v>0.06464025011863095</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>13</v>
@@ -13684,19 +13684,19 @@
         <v>8443</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>4318</v>
+        <v>4725</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>14463</v>
+        <v>14101</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03601145000640107</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01841656084660681</v>
+        <v>0.02015651532856734</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.06169324833905068</v>
+        <v>0.06014853008505854</v>
       </c>
     </row>
     <row r="44">
@@ -13713,19 +13713,19 @@
         <v>85541</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>80423</v>
+        <v>81185</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>88296</v>
+        <v>88333</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9516614616597735</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8947200707475462</v>
+        <v>0.9032000512699172</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9823076491069018</v>
+        <v>0.9827244966346325</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>243</v>
@@ -13734,19 +13734,19 @@
         <v>134777</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>129733</v>
+        <v>129138</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>138717</v>
+        <v>138728</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.9323611645884075</v>
+        <v>0.9323611645884073</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8974714548247652</v>
+        <v>0.8933569907901441</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9596199017565241</v>
+        <v>0.9596962623506179</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>368</v>
@@ -13755,19 +13755,19 @@
         <v>220318</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>213743</v>
+        <v>213900</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>225685</v>
+        <v>225534</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.939761044515943</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9117155874450766</v>
+        <v>0.9123861090187486</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.962657628498913</v>
+        <v>0.9620116978124739</v>
       </c>
     </row>
     <row r="45">
@@ -13875,16 +13875,16 @@
         <v>0</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>4196</v>
+        <v>4186</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.001487021885964802</v>
+        <v>0.001487021885964803</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.004528022489978373</v>
+        <v>0.004518022260205613</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>2</v>
@@ -13896,16 +13896,16 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>4865</v>
+        <v>4713</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.0008520073477651509</v>
+        <v>0.000852007347765151</v>
       </c>
       <c r="V46" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.003007900553873043</v>
+        <v>0.002914279692345703</v>
       </c>
     </row>
     <row r="47">
@@ -13922,19 +13922,19 @@
         <v>8579</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>4108</v>
+        <v>3718</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>16189</v>
+        <v>17112</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0124225129564568</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.005948012420078756</v>
+        <v>0.005383817156820905</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.02344166511815379</v>
+        <v>0.02477777645897943</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>10</v>
@@ -13943,19 +13943,19 @@
         <v>7082</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3409</v>
+        <v>3331</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>12481</v>
+        <v>12282</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.007642391785542767</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.003679117454300635</v>
+        <v>0.003594547795519258</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.01346978072930022</v>
+        <v>0.0132550725275813</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>18</v>
@@ -13964,19 +13964,19 @@
         <v>15661</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>9681</v>
+        <v>9275</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>26797</v>
+        <v>25283</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.009683684160951826</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.005985864501909925</v>
+        <v>0.005735028874719614</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.01656957581191504</v>
+        <v>0.01563354633240819</v>
       </c>
     </row>
     <row r="48">
@@ -13993,19 +13993,19 @@
         <v>34723</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>23237</v>
+        <v>22929</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>48991</v>
+        <v>51434</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.05027787254579798</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03364599479002293</v>
+        <v>0.03320105141625106</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.07093793154693168</v>
+        <v>0.07447440625579667</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>67</v>
@@ -14014,19 +14014,19 @@
         <v>49639</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>37857</v>
+        <v>38782</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>63604</v>
+        <v>64065</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.05356952315411093</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.04085448578681573</v>
+        <v>0.04185361856357514</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.0686404718457216</v>
+        <v>0.06913785747978582</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>95</v>
@@ -14035,19 +14035,19 @@
         <v>84362</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>67613</v>
+        <v>68310</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>104663</v>
+        <v>105460</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.05216386395656907</v>
+        <v>0.05216386395656908</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04180780049508721</v>
+        <v>0.04223835334490707</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.06471665360135147</v>
+        <v>0.06520960192287968</v>
       </c>
     </row>
     <row r="49">
@@ -14064,19 +14064,19 @@
         <v>29321</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>20401</v>
+        <v>20104</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>40784</v>
+        <v>42125</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.04245531159561042</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.02953998423742166</v>
+        <v>0.02910973940536851</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05905336286018423</v>
+        <v>0.0609953285854327</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>53</v>
@@ -14085,19 +14085,19 @@
         <v>35686</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>27299</v>
+        <v>26971</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>46347</v>
+        <v>47597</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>0.03851167720165183</v>
+        <v>0.03851167720165184</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.02946129009358391</v>
+        <v>0.02910709844728325</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.05001753904338537</v>
+        <v>0.05136670901960955</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>84</v>
@@ -14106,19 +14106,19 @@
         <v>65006</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>50978</v>
+        <v>50897</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>80338</v>
+        <v>79733</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.04019575811340187</v>
+        <v>0.04019575811340188</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.03152128672434613</v>
+        <v>0.03147136213396671</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04967598041705509</v>
+        <v>0.04930200085823461</v>
       </c>
     </row>
     <row r="50">
@@ -14135,19 +14135,19 @@
         <v>618001</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>598198</v>
+        <v>599394</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>633897</v>
+        <v>633819</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.8948443029021347</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8661708594258917</v>
+        <v>0.867901476092824</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9178605162390667</v>
+        <v>0.9177478982190281</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1219</v>
@@ -14156,19 +14156,19 @@
         <v>832836</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>816522</v>
+        <v>813520</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>847499</v>
+        <v>846921</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.8987893859727295</v>
+        <v>0.8987893859727296</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.8811835461371194</v>
+        <v>0.8779430478446073</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.914613535190677</v>
+        <v>0.913989103178834</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1864</v>
@@ -14177,19 +14177,19 @@
         <v>1450837</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1425121</v>
+        <v>1424831</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1473119</v>
+        <v>1473392</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.8971046864213119</v>
+        <v>0.897104686421312</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8812035965012458</v>
+        <v>0.8810240313286459</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9108826132926011</v>
+        <v>0.9110511662992901</v>
       </c>
     </row>
     <row r="51">
